--- a/Common Documents/Test Cases/Loan Management Test Cases.xlsx
+++ b/Common Documents/Test Cases/Loan Management Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indira\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A73AF9F-583E-41B2-A11A-447239B76CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3E3B72-8AD4-4CBF-BFE8-BDF46B7B82A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="118">
   <si>
     <t>Days</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>Non-Functional</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>TC_02</t>
@@ -336,9 +333,6 @@
   </si>
   <si>
     <t>TC_09</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>Account Id should only have positive numeric values.</t>
@@ -1073,20 +1067,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1403,7 +1397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -1424,7 +1418,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="B1" s="61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C1" s="60"/>
       <c r="D1" s="58"/>
@@ -1437,7 +1431,7 @@
     </row>
     <row r="2" spans="1:10" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="55"/>
       <c r="D2" s="54"/>
@@ -1450,161 +1444,153 @@
     </row>
     <row r="3" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" s="48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F3" s="48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H3" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="38" x14ac:dyDescent="0.25">
       <c r="B4" s="43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G4" s="39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="37"/>
       <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="83" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="85" t="s">
+      <c r="B5" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="34" t="s">
-        <v>37</v>
-      </c>
+      <c r="H5" s="34"/>
       <c r="I5" s="26"/>
       <c r="J5" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="85" t="s">
-        <v>81</v>
+      <c r="B6" s="81" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="83" t="s">
+        <v>80</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F6" s="30">
         <v>123</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>37</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H6" s="34"/>
       <c r="I6" s="26"/>
       <c r="J6" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="D7" s="85" t="s">
+      <c r="B7" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="82" t="s">
         <v>87</v>
       </c>
+      <c r="D7" s="83" t="s">
+        <v>85</v>
+      </c>
       <c r="E7" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>37</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="H7" s="34"/>
       <c r="I7" s="26"/>
       <c r="J7" s="33" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="83" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>88</v>
+      <c r="B8" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="83" t="s">
+        <v>86</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>37</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="H8" s="34"/>
       <c r="I8" s="26"/>
       <c r="J8" s="33" t="s">
         <v>36</v>
@@ -1612,26 +1598,24 @@
     </row>
     <row r="9" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" s="36">
         <v>670</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="34" t="s">
-        <v>86</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="H9" s="34"/>
       <c r="I9" s="26"/>
       <c r="J9" s="33" t="s">
         <v>36</v>
@@ -1639,26 +1623,24 @@
     </row>
     <row r="10" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>91</v>
-      </c>
       <c r="E10" s="30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F10" s="80">
         <v>12</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>86</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="H10" s="34"/>
       <c r="I10" s="26"/>
       <c r="J10" s="33" t="s">
         <v>36</v>
@@ -1666,26 +1648,24 @@
     </row>
     <row r="11" spans="1:10" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="G11" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>37</v>
-      </c>
+      <c r="H11" s="34"/>
       <c r="I11" s="26"/>
       <c r="J11" s="33" t="s">
         <v>36</v>
@@ -1693,26 +1673,24 @@
     </row>
     <row r="12" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F12" s="30">
         <v>77451123224567</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>86</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="H12" s="34"/>
       <c r="I12" s="26"/>
       <c r="J12" s="33" t="s">
         <v>36</v>
@@ -1720,26 +1698,24 @@
     </row>
     <row r="13" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D13" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="30" t="s">
         <v>104</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>106</v>
       </c>
       <c r="F13" s="36">
         <v>870</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="34" t="s">
-        <v>86</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="H13" s="34"/>
       <c r="I13" s="26"/>
       <c r="J13" s="33" t="s">
         <v>36</v>
@@ -1747,26 +1723,24 @@
     </row>
     <row r="14" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C14" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="E14" s="30" t="s">
         <v>105</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>107</v>
       </c>
       <c r="F14" s="36">
         <v>700000</v>
       </c>
       <c r="G14" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="H14" s="34" t="s">
-        <v>86</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="H14" s="34"/>
       <c r="I14" s="26"/>
       <c r="J14" s="33" t="s">
         <v>36</v>
@@ -1774,26 +1748,24 @@
     </row>
     <row r="15" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F15" s="36">
         <v>36</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" s="34" t="s">
-        <v>86</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="H15" s="34"/>
       <c r="I15" s="26"/>
       <c r="J15" s="33" t="s">
         <v>36</v>
@@ -1801,26 +1773,24 @@
     </row>
     <row r="16" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F16" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="G16" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="G16" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>86</v>
-      </c>
+      <c r="H16" s="34"/>
       <c r="I16" s="26"/>
       <c r="J16" s="33" t="s">
         <v>36</v>
@@ -1828,26 +1798,24 @@
     </row>
     <row r="17" spans="2:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" s="30" t="s">
         <v>104</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>106</v>
       </c>
       <c r="F17" s="36">
         <v>570</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="H17" s="34" t="s">
-        <v>37</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H17" s="34"/>
       <c r="I17" s="26"/>
       <c r="J17" s="33" t="s">
         <v>36</v>
@@ -1855,26 +1823,24 @@
     </row>
     <row r="18" spans="2:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C18" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="E18" s="30" t="s">
         <v>105</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>107</v>
       </c>
       <c r="F18" s="36">
         <v>3000000</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="H18" s="34" t="s">
-        <v>37</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H18" s="34"/>
       <c r="I18" s="26"/>
       <c r="J18" s="33" t="s">
         <v>36</v>
@@ -1882,26 +1848,24 @@
     </row>
     <row r="19" spans="2:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D19" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F19" s="36">
         <v>360</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>37</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H19" s="34"/>
       <c r="I19" s="26"/>
       <c r="J19" s="33" t="s">
         <v>36</v>
@@ -1909,26 +1873,24 @@
     </row>
     <row r="20" spans="2:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="F20" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="24" t="s">
-        <v>103</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>119</v>
-      </c>
       <c r="G20" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="H20" s="34" t="s">
-        <v>37</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="H20" s="34"/>
       <c r="I20" s="26"/>
       <c r="J20" s="33" t="s">
         <v>36</v>
@@ -2365,82 +2327,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.35">
-      <c r="G1" s="81" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="81" t="s">
+      <c r="G1" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="85"/>
+      <c r="I1" s="84" t="s">
+        <v>64</v>
+      </c>
+      <c r="J1" s="85"/>
+      <c r="K1" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="81" t="s">
+      <c r="L1" s="85"/>
+      <c r="M1" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="82"/>
-      <c r="M1" s="81" t="s">
+      <c r="N1" s="85"/>
+      <c r="O1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="N1" s="82"/>
-      <c r="O1" s="81" t="s">
+      <c r="P1" s="85"/>
+      <c r="Q1" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="81" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="82"/>
+      <c r="R1" s="85"/>
     </row>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="D2" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="E2" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="F2" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="62" t="s">
-        <v>61</v>
-      </c>
       <c r="G2" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="79" t="s">
-        <v>64</v>
-      </c>
       <c r="I2" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="J2" s="79" t="s">
-        <v>64</v>
-      </c>
       <c r="K2" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="L2" s="79" t="s">
-        <v>64</v>
-      </c>
       <c r="M2" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="N2" s="79" t="s">
-        <v>64</v>
-      </c>
       <c r="O2" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="79" t="s">
-        <v>64</v>
-      </c>
       <c r="Q2" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="R2" s="79" t="s">
         <v>63</v>
-      </c>
-      <c r="R2" s="79" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">

--- a/Common Documents/Test Cases/Loan Management Test Cases.xlsx
+++ b/Common Documents/Test Cases/Loan Management Test Cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indira\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishr\OneDrive\Documents\GitHub\PecuniaFinance\Common Documents\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3E3B72-8AD4-4CBF-BFE8-BDF46B7B82A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03B1827-A67F-44E6-ABFA-6D32A44D0E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
     <definedName name="priority">'[1]Development Phase Query'!#REF!</definedName>
     <definedName name="User">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="119">
   <si>
     <t>Days</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>Account has 3 loan associated with it.</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -1397,7 +1400,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -1515,7 +1518,9 @@
       <c r="G5" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="H5" s="34"/>
+      <c r="H5" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="I5" s="26"/>
       <c r="J5" s="33" t="s">
         <v>36</v>
@@ -1540,7 +1545,9 @@
       <c r="G6" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="34"/>
+      <c r="H6" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="I6" s="26"/>
       <c r="J6" s="33" t="s">
         <v>36</v>
@@ -1565,7 +1572,9 @@
       <c r="G7" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="34"/>
+      <c r="H7" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="I7" s="26"/>
       <c r="J7" s="33" t="s">
         <v>36</v>
@@ -1590,7 +1599,9 @@
       <c r="G8" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="H8" s="34"/>
+      <c r="H8" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="I8" s="26"/>
       <c r="J8" s="33" t="s">
         <v>36</v>
@@ -1615,7 +1626,9 @@
       <c r="G9" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="H9" s="34"/>
+      <c r="H9" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="I9" s="26"/>
       <c r="J9" s="33" t="s">
         <v>36</v>
@@ -1640,7 +1653,9 @@
       <c r="G10" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="H10" s="34"/>
+      <c r="H10" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="I10" s="26"/>
       <c r="J10" s="33" t="s">
         <v>36</v>
@@ -1665,7 +1680,9 @@
       <c r="G11" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="H11" s="34"/>
+      <c r="H11" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="I11" s="26"/>
       <c r="J11" s="33" t="s">
         <v>36</v>
@@ -1690,7 +1707,9 @@
       <c r="G12" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="34"/>
+      <c r="H12" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="I12" s="26"/>
       <c r="J12" s="33" t="s">
         <v>36</v>
@@ -1715,7 +1734,9 @@
       <c r="G13" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="34"/>
+      <c r="H13" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="I13" s="26"/>
       <c r="J13" s="33" t="s">
         <v>36</v>
@@ -1740,7 +1761,9 @@
       <c r="G14" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="H14" s="34"/>
+      <c r="H14" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="I14" s="26"/>
       <c r="J14" s="33" t="s">
         <v>36</v>
@@ -1765,7 +1788,9 @@
       <c r="G15" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="34"/>
+      <c r="H15" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="I15" s="26"/>
       <c r="J15" s="33" t="s">
         <v>36</v>
@@ -1790,7 +1815,9 @@
       <c r="G16" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="H16" s="34"/>
+      <c r="H16" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="I16" s="26"/>
       <c r="J16" s="33" t="s">
         <v>36</v>
@@ -1815,7 +1842,9 @@
       <c r="G17" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="H17" s="34"/>
+      <c r="H17" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="I17" s="26"/>
       <c r="J17" s="33" t="s">
         <v>36</v>
@@ -1840,7 +1869,9 @@
       <c r="G18" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="H18" s="34"/>
+      <c r="H18" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="I18" s="26"/>
       <c r="J18" s="33" t="s">
         <v>36</v>
@@ -1865,7 +1896,9 @@
       <c r="G19" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="34"/>
+      <c r="H19" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="I19" s="26"/>
       <c r="J19" s="33" t="s">
         <v>36</v>
@@ -1890,7 +1923,9 @@
       <c r="G20" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="H20" s="34"/>
+      <c r="H20" s="34" t="s">
+        <v>118</v>
+      </c>
       <c r="I20" s="26"/>
       <c r="J20" s="33" t="s">
         <v>36</v>
